--- a/excel/scan_magnetic_field_cor.xlsx
+++ b/excel/scan_magnetic_field_cor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takashi/git-org/ucn-triumf/polarization-foils-bl05-202107/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCD1EFB-2830-4746-BDC9-0B45410D92EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7C5BE8-4C86-7A4F-8992-46D37565DD2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="980" windowWidth="19580" windowHeight="15540" activeTab="2" xr2:uid="{8B58A168-7BE9-C644-9F9C-97F4ECEBB65F}"/>
+    <workbookView xWindow="1000" yWindow="980" windowWidth="19580" windowHeight="15540" xr2:uid="{8B58A168-7BE9-C644-9F9C-97F4ECEBB65F}"/>
   </bookViews>
   <sheets>
     <sheet name="20210716210153" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7FD5B3-81B2-B64F-A5DE-8CEC54323FBD}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2A16D7-A651-DB4D-A4C5-2DCC5460C573}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
